--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7135533333333334</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H2">
-        <v>2.14066</v>
+        <v>0.14947</v>
       </c>
       <c r="I2">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="J2">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N2">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q2">
-        <v>7.136354157517778</v>
+        <v>0.90444461417</v>
       </c>
       <c r="R2">
-        <v>64.22718741765999</v>
+        <v>8.14000152753</v>
       </c>
       <c r="S2">
-        <v>0.005751773583002088</v>
+        <v>0.0007714584862706767</v>
       </c>
       <c r="T2">
-        <v>0.005751773583002088</v>
+        <v>0.0007714584862706769</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7135533333333334</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H3">
-        <v>2.14066</v>
+        <v>0.14947</v>
       </c>
       <c r="I3">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="J3">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P3">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q3">
-        <v>50.93421161440222</v>
+        <v>3.556443624865555</v>
       </c>
       <c r="R3">
-        <v>458.40790452962</v>
+        <v>32.00799262379</v>
       </c>
       <c r="S3">
-        <v>0.04105206193083012</v>
+        <v>0.003033517555813629</v>
       </c>
       <c r="T3">
-        <v>0.04105206193083012</v>
+        <v>0.00303351755581363</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7135533333333334</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H4">
-        <v>2.14066</v>
+        <v>0.14947</v>
       </c>
       <c r="I4">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="J4">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N4">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q4">
-        <v>49.80878126385333</v>
+        <v>3.291813184566667</v>
       </c>
       <c r="R4">
-        <v>448.27903137468</v>
+        <v>29.6263186611</v>
       </c>
       <c r="S4">
-        <v>0.04014498523355373</v>
+        <v>0.00280779737826415</v>
       </c>
       <c r="T4">
-        <v>0.04014498523355373</v>
+        <v>0.00280779737826415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.7135533333333334</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H5">
-        <v>2.14066</v>
+        <v>0.14947</v>
       </c>
       <c r="I5">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="J5">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N5">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q5">
-        <v>14.52890963936889</v>
+        <v>0.8550100024833334</v>
       </c>
       <c r="R5">
-        <v>130.76018675432</v>
+        <v>7.695090022350001</v>
       </c>
       <c r="S5">
-        <v>0.01171004084284591</v>
+        <v>0.0007292925536047254</v>
       </c>
       <c r="T5">
-        <v>0.01171004084284591</v>
+        <v>0.0007292925536047255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.7135533333333334</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H6">
-        <v>2.14066</v>
+        <v>0.14947</v>
       </c>
       <c r="I6">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="J6">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N6">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q6">
-        <v>21.62227458706445</v>
+        <v>1.647476459085556</v>
       </c>
       <c r="R6">
-        <v>194.60047128358</v>
+        <v>14.82728813177</v>
       </c>
       <c r="S6">
-        <v>0.01742716589300449</v>
+        <v>0.00140523772863534</v>
       </c>
       <c r="T6">
-        <v>0.01742716589300449</v>
+        <v>0.00140523772863534</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.7135533333333334</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H7">
-        <v>2.14066</v>
+        <v>0.14947</v>
       </c>
       <c r="I7">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="J7">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N7">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q7">
-        <v>56.91574082965556</v>
+        <v>4.463925403004445</v>
       </c>
       <c r="R7">
-        <v>512.2416674669</v>
+        <v>40.17532862704</v>
       </c>
       <c r="S7">
-        <v>0.04587306730232028</v>
+        <v>0.003807566632907986</v>
       </c>
       <c r="T7">
-        <v>0.04587306730232028</v>
+        <v>0.003807566632907987</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7746843333333334</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H8">
-        <v>2.324053</v>
+        <v>2.14066</v>
       </c>
       <c r="I8">
-        <v>0.1758343315209595</v>
+        <v>0.179806708586231</v>
       </c>
       <c r="J8">
-        <v>0.1758343315209595</v>
+        <v>0.1798067085862311</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N8">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q8">
-        <v>7.747734478544778</v>
+        <v>12.95315720726</v>
       </c>
       <c r="R8">
-        <v>69.729610306903</v>
+        <v>116.57841486534</v>
       </c>
       <c r="S8">
-        <v>0.006244535167143195</v>
+        <v>0.0110485737821649</v>
       </c>
       <c r="T8">
-        <v>0.006244535167143195</v>
+        <v>0.0110485737821649</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7746843333333334</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H9">
-        <v>2.324053</v>
+        <v>2.14066</v>
       </c>
       <c r="I9">
-        <v>0.1758343315209595</v>
+        <v>0.179806708586231</v>
       </c>
       <c r="J9">
-        <v>0.1758343315209595</v>
+        <v>0.1798067085862311</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P9">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q9">
-        <v>55.29780876229123</v>
+        <v>50.93421161440222</v>
       </c>
       <c r="R9">
-        <v>497.6802788606211</v>
+        <v>458.40790452962</v>
       </c>
       <c r="S9">
-        <v>0.04456904304585106</v>
+        <v>0.04344503707117151</v>
       </c>
       <c r="T9">
-        <v>0.04456904304585107</v>
+        <v>0.04344503707117152</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7746843333333334</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H10">
-        <v>2.324053</v>
+        <v>2.14066</v>
       </c>
       <c r="I10">
-        <v>0.1758343315209595</v>
+        <v>0.179806708586231</v>
       </c>
       <c r="J10">
-        <v>0.1758343315209595</v>
+        <v>0.1798067085862311</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N10">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q10">
-        <v>54.07596139629934</v>
+        <v>47.14426180286667</v>
       </c>
       <c r="R10">
-        <v>486.683652566694</v>
+        <v>424.2983562258</v>
       </c>
       <c r="S10">
-        <v>0.04358425596171098</v>
+        <v>0.04021234719846748</v>
       </c>
       <c r="T10">
-        <v>0.04358425596171099</v>
+        <v>0.0402123471984675</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7746843333333334</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H11">
-        <v>2.324053</v>
+        <v>2.14066</v>
       </c>
       <c r="I11">
-        <v>0.1758343315209595</v>
+        <v>0.179806708586231</v>
       </c>
       <c r="J11">
-        <v>0.1758343315209595</v>
+        <v>0.1798067085862311</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N11">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q11">
-        <v>15.77361936697289</v>
+        <v>12.24517101703334</v>
       </c>
       <c r="R11">
-        <v>141.962574302756</v>
+        <v>110.2065391533</v>
       </c>
       <c r="S11">
-        <v>0.01271325458080151</v>
+        <v>0.01044468721348426</v>
       </c>
       <c r="T11">
-        <v>0.01271325458080151</v>
+        <v>0.01044468721348426</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7746843333333334</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H12">
-        <v>2.324053</v>
+        <v>2.14066</v>
       </c>
       <c r="I12">
-        <v>0.1758343315209595</v>
+        <v>0.179806708586231</v>
       </c>
       <c r="J12">
-        <v>0.1758343315209595</v>
+        <v>0.1798067085862311</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N12">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q12">
-        <v>23.47468169671545</v>
+        <v>23.59461401556223</v>
       </c>
       <c r="R12">
-        <v>211.272135270439</v>
+        <v>212.35152614006</v>
       </c>
       <c r="S12">
-        <v>0.01892017283227359</v>
+        <v>0.02012535088098298</v>
       </c>
       <c r="T12">
-        <v>0.01892017283227359</v>
+        <v>0.02012535088098299</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7746843333333334</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H13">
-        <v>2.324053</v>
+        <v>2.14066</v>
       </c>
       <c r="I13">
-        <v>0.1758343315209595</v>
+        <v>0.179806708586231</v>
       </c>
       <c r="J13">
-        <v>0.1758343315209595</v>
+        <v>0.1798067085862311</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N13">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q13">
-        <v>61.79178301196057</v>
+        <v>63.93086608145779</v>
       </c>
       <c r="R13">
-        <v>556.126047107645</v>
+        <v>575.37779473312</v>
       </c>
       <c r="S13">
-        <v>0.04980306993317919</v>
+        <v>0.05453071243995992</v>
       </c>
       <c r="T13">
-        <v>0.04980306993317919</v>
+        <v>0.05453071243995993</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.222982</v>
+        <v>0.9832743333333335</v>
       </c>
       <c r="H14">
-        <v>3.668946</v>
+        <v>2.949823</v>
       </c>
       <c r="I14">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="J14">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N14">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q14">
-        <v>12.23122683696066</v>
+        <v>17.849411421053</v>
       </c>
       <c r="R14">
-        <v>110.081041532646</v>
+        <v>160.644702789477</v>
       </c>
       <c r="S14">
-        <v>0.009858149673587197</v>
+        <v>0.01522490122664365</v>
       </c>
       <c r="T14">
-        <v>0.009858149673587198</v>
+        <v>0.01522490122664366</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.222982</v>
+        <v>0.9832743333333335</v>
       </c>
       <c r="H15">
-        <v>3.668946</v>
+        <v>2.949823</v>
       </c>
       <c r="I15">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="J15">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P15">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q15">
-        <v>87.29778291079131</v>
+        <v>70.18718942150123</v>
       </c>
       <c r="R15">
-        <v>785.6800461971219</v>
+        <v>631.6847047935111</v>
       </c>
       <c r="S15">
-        <v>0.07036044883955013</v>
+        <v>0.05986712957143795</v>
       </c>
       <c r="T15">
-        <v>0.07036044883955016</v>
+        <v>0.05986712957143796</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.222982</v>
+        <v>0.9832743333333335</v>
       </c>
       <c r="H16">
-        <v>3.668946</v>
+        <v>2.949823</v>
       </c>
       <c r="I16">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="J16">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N16">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q16">
-        <v>85.36887164841198</v>
+        <v>64.96465005377668</v>
       </c>
       <c r="R16">
-        <v>768.319844835708</v>
+        <v>584.6818504839902</v>
       </c>
       <c r="S16">
-        <v>0.06880578092397015</v>
+        <v>0.05541249271253958</v>
       </c>
       <c r="T16">
-        <v>0.06880578092397018</v>
+        <v>0.0554124927125396</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.222982</v>
+        <v>0.9832743333333335</v>
       </c>
       <c r="H17">
-        <v>3.668946</v>
+        <v>2.949823</v>
       </c>
       <c r="I17">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="J17">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N17">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q17">
-        <v>24.90156536102133</v>
+        <v>16.87380859406834</v>
       </c>
       <c r="R17">
-        <v>224.114088249192</v>
+        <v>151.864277346615</v>
       </c>
       <c r="S17">
-        <v>0.02007021549904987</v>
+        <v>0.01439274736302905</v>
       </c>
       <c r="T17">
-        <v>0.02007021549904988</v>
+        <v>0.01439274736302905</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.222982</v>
+        <v>0.9832743333333335</v>
       </c>
       <c r="H18">
-        <v>3.668946</v>
+        <v>2.949823</v>
       </c>
       <c r="I18">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="J18">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N18">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q18">
-        <v>37.05911160908866</v>
+        <v>32.51330669009923</v>
       </c>
       <c r="R18">
-        <v>333.532004481798</v>
+        <v>292.619760210893</v>
       </c>
       <c r="S18">
-        <v>0.02986897993818507</v>
+        <v>0.02773267259246862</v>
       </c>
       <c r="T18">
-        <v>0.02986897993818507</v>
+        <v>0.02773267259246863</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,14 +1582,14 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.222982</v>
+        <v>0.9832743333333335</v>
       </c>
       <c r="H19">
-        <v>3.668946</v>
+        <v>2.949823</v>
       </c>
       <c r="I19">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="J19">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N19">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q19">
-        <v>97.54971814954332</v>
+        <v>88.09653993488179</v>
       </c>
       <c r="R19">
-        <v>877.94746334589</v>
+        <v>792.8688594139361</v>
       </c>
       <c r="S19">
-        <v>0.07862332494958504</v>
+        <v>0.07514315667213846</v>
       </c>
       <c r="T19">
-        <v>0.07862332494958507</v>
+        <v>0.07514315667213847</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,13 +1644,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.694543</v>
+        <v>1.329163</v>
       </c>
       <c r="H20">
-        <v>5.083629</v>
+        <v>3.987489</v>
       </c>
       <c r="I20">
-        <v>0.3846196738695563</v>
+        <v>0.3349328116626656</v>
       </c>
       <c r="J20">
-        <v>0.3846196738695563</v>
+        <v>0.3349328116626657</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N20">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q20">
-        <v>16.94737928929767</v>
+        <v>24.128339801379</v>
       </c>
       <c r="R20">
-        <v>152.526413603679</v>
+        <v>217.155058212411</v>
       </c>
       <c r="S20">
-        <v>0.01365928404696837</v>
+        <v>0.0205805996384624</v>
       </c>
       <c r="T20">
-        <v>0.01365928404696837</v>
+        <v>0.0205805996384624</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.694543</v>
+        <v>1.329163</v>
       </c>
       <c r="H21">
-        <v>5.083629</v>
+        <v>3.987489</v>
       </c>
       <c r="I21">
-        <v>0.3846196738695563</v>
+        <v>0.3349328116626656</v>
       </c>
       <c r="J21">
-        <v>0.3846196738695563</v>
+        <v>0.3349328116626657</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P21">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q21">
-        <v>120.9583190488503</v>
+        <v>94.87709796796366</v>
       </c>
       <c r="R21">
-        <v>1088.624871439653</v>
+        <v>853.8938817116731</v>
       </c>
       <c r="S21">
-        <v>0.09749023784317172</v>
+        <v>0.08092672700283492</v>
       </c>
       <c r="T21">
-        <v>0.09749023784317173</v>
+        <v>0.08092672700283494</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,13 +1768,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.694543</v>
+        <v>1.329163</v>
       </c>
       <c r="H22">
-        <v>5.083629</v>
+        <v>3.987489</v>
       </c>
       <c r="I22">
-        <v>0.3846196738695563</v>
+        <v>0.3349328116626656</v>
       </c>
       <c r="J22">
-        <v>0.3846196738695563</v>
+        <v>0.3349328116626657</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N22">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q22">
-        <v>118.285652503238</v>
+        <v>87.81741395273001</v>
       </c>
       <c r="R22">
-        <v>1064.570872529142</v>
+        <v>790.3567255745701</v>
       </c>
       <c r="S22">
-        <v>0.09533611649578423</v>
+        <v>0.07490507232258738</v>
       </c>
       <c r="T22">
-        <v>0.09533611649578425</v>
+        <v>0.07490507232258742</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.694543</v>
+        <v>1.329163</v>
       </c>
       <c r="H23">
-        <v>5.083629</v>
+        <v>3.987489</v>
       </c>
       <c r="I23">
-        <v>0.3846196738695563</v>
+        <v>0.3349328116626656</v>
       </c>
       <c r="J23">
-        <v>0.3846196738695563</v>
+        <v>0.3349328116626657</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N23">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q23">
-        <v>34.50318424274533</v>
+        <v>22.809546931105</v>
       </c>
       <c r="R23">
-        <v>310.528658184708</v>
+        <v>205.285922379945</v>
       </c>
       <c r="S23">
-        <v>0.02780894827757602</v>
+        <v>0.01945571710229982</v>
       </c>
       <c r="T23">
-        <v>0.02780894827757602</v>
+        <v>0.01945571710229982</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.694543</v>
+        <v>1.329163</v>
       </c>
       <c r="H24">
-        <v>5.083629</v>
+        <v>3.987489</v>
       </c>
       <c r="I24">
-        <v>0.3846196738695563</v>
+        <v>0.3349328116626656</v>
       </c>
       <c r="J24">
-        <v>0.3846196738695563</v>
+        <v>0.3349328116626657</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N24">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q24">
-        <v>51.34847296476967</v>
+        <v>43.95058713027767</v>
       </c>
       <c r="R24">
-        <v>462.136256682927</v>
+        <v>395.555284172499</v>
       </c>
       <c r="S24">
-        <v>0.04138594915656318</v>
+        <v>0.03748825841518969</v>
       </c>
       <c r="T24">
-        <v>0.04138594915656318</v>
+        <v>0.0374882584151897</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.329163</v>
+      </c>
+      <c r="H25">
+        <v>3.987489</v>
+      </c>
+      <c r="I25">
+        <v>0.3349328116626656</v>
+      </c>
+      <c r="J25">
+        <v>0.3349328116626657</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>89.59507733333334</v>
+      </c>
+      <c r="N25">
+        <v>268.785232</v>
+      </c>
+      <c r="O25">
+        <v>0.3032740706323996</v>
+      </c>
+      <c r="P25">
+        <v>0.3032740706323996</v>
+      </c>
+      <c r="Q25">
+        <v>119.0864617736054</v>
+      </c>
+      <c r="R25">
+        <v>1071.778155962448</v>
+      </c>
+      <c r="S25">
+        <v>0.1015764371812914</v>
+      </c>
+      <c r="T25">
+        <v>0.1015764371812915</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.8926326666666666</v>
+      </c>
+      <c r="H26">
+        <v>2.677898</v>
+      </c>
+      <c r="I26">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="J26">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>18.153033</v>
+      </c>
+      <c r="N26">
+        <v>54.459099</v>
+      </c>
+      <c r="O26">
+        <v>0.06144694972193577</v>
+      </c>
+      <c r="P26">
+        <v>0.06144694972193578</v>
+      </c>
+      <c r="Q26">
+        <v>16.203990254878</v>
+      </c>
+      <c r="R26">
+        <v>145.835912293902</v>
+      </c>
+      <c r="S26">
+        <v>0.01382141658839414</v>
+      </c>
+      <c r="T26">
+        <v>0.01382141658839415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.8926326666666666</v>
+      </c>
+      <c r="H27">
+        <v>2.677898</v>
+      </c>
+      <c r="I27">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="J27">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>71.38108566666666</v>
+      </c>
+      <c r="N27">
+        <v>214.143257</v>
+      </c>
+      <c r="O27">
+        <v>0.2416207794067722</v>
+      </c>
+      <c r="P27">
+        <v>0.2416207794067722</v>
+      </c>
+      <c r="Q27">
+        <v>63.71708884819844</v>
+      </c>
+      <c r="R27">
+        <v>573.453799633786</v>
+      </c>
+      <c r="S27">
+        <v>0.0543483682055142</v>
+      </c>
+      <c r="T27">
+        <v>0.05434836820551422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.8926326666666666</v>
+      </c>
+      <c r="H28">
+        <v>2.677898</v>
+      </c>
+      <c r="I28">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="J28">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>66.06971</v>
+      </c>
+      <c r="N28">
+        <v>198.20913</v>
+      </c>
+      <c r="O28">
+        <v>0.2236420849624896</v>
+      </c>
+      <c r="P28">
+        <v>0.2236420849624896</v>
+      </c>
+      <c r="Q28">
+        <v>58.97598142319333</v>
+      </c>
+      <c r="R28">
+        <v>530.78383280874</v>
+      </c>
+      <c r="S28">
+        <v>0.05030437535063096</v>
+      </c>
+      <c r="T28">
+        <v>0.05030437535063098</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.694543</v>
-      </c>
-      <c r="H25">
-        <v>5.083629</v>
-      </c>
-      <c r="I25">
-        <v>0.3846196738695563</v>
-      </c>
-      <c r="J25">
-        <v>0.3846196738695563</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>79.76382166666667</v>
-      </c>
-      <c r="N25">
-        <v>239.291465</v>
-      </c>
-      <c r="O25">
-        <v>0.2832386002345773</v>
-      </c>
-      <c r="P25">
-        <v>0.2832386002345773</v>
-      </c>
-      <c r="Q25">
-        <v>135.1632256584984</v>
-      </c>
-      <c r="R25">
-        <v>1216.469030926485</v>
-      </c>
-      <c r="S25">
-        <v>0.1089391380494927</v>
-      </c>
-      <c r="T25">
-        <v>0.1089391380494928</v>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.8926326666666666</v>
+      </c>
+      <c r="H29">
+        <v>2.677898</v>
+      </c>
+      <c r="I29">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="J29">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>17.160835</v>
+      </c>
+      <c r="N29">
+        <v>51.482505</v>
+      </c>
+      <c r="O29">
+        <v>0.05808841781048025</v>
+      </c>
+      <c r="P29">
+        <v>0.05808841781048025</v>
+      </c>
+      <c r="Q29">
+        <v>15.31832190827667</v>
+      </c>
+      <c r="R29">
+        <v>137.86489717449</v>
+      </c>
+      <c r="S29">
+        <v>0.0130659735780624</v>
+      </c>
+      <c r="T29">
+        <v>0.0130659735780624</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.8926326666666666</v>
+      </c>
+      <c r="H30">
+        <v>2.677898</v>
+      </c>
+      <c r="I30">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="J30">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>33.06636366666667</v>
+      </c>
+      <c r="N30">
+        <v>99.199091</v>
+      </c>
+      <c r="O30">
+        <v>0.1119276974659227</v>
+      </c>
+      <c r="P30">
+        <v>0.1119276974659227</v>
+      </c>
+      <c r="Q30">
+        <v>29.51611637674644</v>
+      </c>
+      <c r="R30">
+        <v>265.645047390718</v>
+      </c>
+      <c r="S30">
+        <v>0.02517617784864601</v>
+      </c>
+      <c r="T30">
+        <v>0.02517617784864602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.8926326666666666</v>
+      </c>
+      <c r="H31">
+        <v>2.677898</v>
+      </c>
+      <c r="I31">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="J31">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>89.59507733333334</v>
+      </c>
+      <c r="N31">
+        <v>268.785232</v>
+      </c>
+      <c r="O31">
+        <v>0.3032740706323996</v>
+      </c>
+      <c r="P31">
+        <v>0.3032740706323996</v>
+      </c>
+      <c r="Q31">
+        <v>79.97549280025956</v>
+      </c>
+      <c r="R31">
+        <v>719.779435202336</v>
+      </c>
+      <c r="S31">
+        <v>0.06821619770610177</v>
+      </c>
+      <c r="T31">
+        <v>0.06821619770610177</v>
       </c>
     </row>
   </sheetData>
